--- a/docs/0.1.0/StructureDefinition-process-meta.xlsx
+++ b/docs/0.1.0/StructureDefinition-process-meta.xlsx
@@ -216,7 +216,7 @@
     <t>tenantId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/tenant-id}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/tenant-id}
 </t>
   </si>
   <si>
@@ -229,63 +229,63 @@
     <t>ingestionBatchId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/ingestion-batch-id}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/ingestion-batch-id}
 </t>
   </si>
   <si>
     <t>processOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-organization}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-organization}
 </t>
   </si>
   <si>
     <t>processName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-name}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-name}
 </t>
   </si>
   <si>
     <t>processVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-version}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-version}
 </t>
   </si>
   <si>
     <t>processType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-type}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-type}
 </t>
   </si>
   <si>
     <t>processRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-record-id}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-record-id}
 </t>
   </si>
   <si>
     <t>processTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-timestamp}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-timestamp}
 </t>
   </si>
   <si>
     <t>sourceFileId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/source-file-id}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-file-id}
 </t>
   </si>
   <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/source-data-model-version}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-data-model-version}
 </t>
   </si>
   <si>

--- a/docs/0.1.0/StructureDefinition-process-meta.xlsx
+++ b/docs/0.1.0/StructureDefinition-process-meta.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="212">
   <si>
     <t>Path</t>
   </si>
@@ -213,6 +213,19 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ingestionBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/ingestion-batch-id}
+</t>
+  </si>
+  <si>
+    <t>The identifier generated by an ingestion service that represents a collection of messages that the producer submitted together.</t>
+  </si>
+  <si>
+    <t>The identifier generated by an ingestion service, such as the Health Record Ingestion (HRI) management API, that represents a collection or grouping of messages that the producer submitted together. The batch definition needs to be agreed upon by data producers and data consumers.</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -220,17 +233,23 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>ingestionBatchId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/ingestion-batch-id}
+    <t>The id of the client or tenant that holds the contract with the data receiver as recorded by the data receiver.</t>
+  </si>
+  <si>
+    <t>The id of the client or tenant that holds the contract with the data receiver as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver system(s). The receiver system(s) should associate this ID to the messages that originate from this client or tenant for traceability, data protection, and data isolation when appropriate.</t>
+  </si>
+  <si>
+    <t>processClientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-client-id}
 </t>
+  </si>
+  <si>
+    <t>The id of the client as recorded by the data producer or data integrator.</t>
+  </si>
+  <si>
+    <t>The id of the client as recorded in the data producer or data integrator source system(s).</t>
   </si>
   <si>
     <t>processOrganization</t>
@@ -240,6 +259,12 @@
 </t>
   </si>
   <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element.</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. For example if an IBM analytic service has been the producer, the process-organization value would be IBM.</t>
+  </si>
+  <si>
     <t>processName</t>
   </si>
   <si>
@@ -247,6 +272,12 @@
 </t>
   </si>
   <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element.</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. For example, if an IBM analytic service has been the producer, the process-name would be the name of that analytic service.</t>
+  </si>
+  <si>
     <t>processVersion</t>
   </si>
   <si>
@@ -254,6 +285,9 @@
 </t>
   </si>
   <si>
+    <t>The version of the process or service that has produced the data held in the FHIR resource or element.</t>
+  </si>
+  <si>
     <t>processType</t>
   </si>
   <si>
@@ -261,6 +295,12 @@
 </t>
   </si>
   <si>
+    <t>The classification type of the process that has produced the data held in the FHIR resource or element.</t>
+  </si>
+  <si>
+    <t>The classification type of the process that has produced the data held in the FHIR resource or element. For example, if the process is primarily a Natural Language Processing (NLP) service, the type may be specified as NLP. Or if the process is primarily one that aggregates and groups related items, the type may be specified as Grouper.</t>
+  </si>
+  <si>
     <t>processRecordId</t>
   </si>
   <si>
@@ -268,6 +308,9 @@
 </t>
   </si>
   <si>
+    <t>The record id that the data producer or data integrator uses internally to identify this data.</t>
+  </si>
+  <si>
     <t>processTimestamp</t>
   </si>
   <si>
@@ -275,6 +318,19 @@
 </t>
   </si>
   <si>
+    <t>The timestamp when the data was generated within this FHIR resource or element.</t>
+  </si>
+  <si>
+    <t>sourceRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-record-id}
+</t>
+  </si>
+  <si>
+    <t>The identifier for a record that the data producer or data integrator extracted knowledge from to produce the data within this FHIR resource or element.</t>
+  </si>
+  <si>
     <t>sourceFileId</t>
   </si>
   <si>
@@ -282,6 +338,19 @@
 </t>
   </si>
   <si>
+    <t>The id for a file that the data producer or data integrator extracted knowledge from to produce the data within this FHIR resource or element.</t>
+  </si>
+  <si>
+    <t>sourceRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-record-type}
+</t>
+  </si>
+  <si>
+    <t>The type of the data model or schema used to generate this FHIR resource.</t>
+  </si>
+  <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
@@ -289,6 +358,98 @@
 </t>
   </si>
   <si>
+    <t>The version of the data model in the source system used by the data producer or data integrator.</t>
+  </si>
+  <si>
+    <t>sourceEventTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-event-trigger}
+</t>
+  </si>
+  <si>
+    <t>The event that is the catalyst for creation or update of this FHIR resource.</t>
+  </si>
+  <si>
+    <t>Meta.extension.id</t>
+  </si>
+  <si>
+    <t>Meta.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Meta.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://alvearie.io/fhir/StructureDefinition/source-event-trigger</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
+  </si>
+  <si>
+    <t>sourceEventTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-event-timestamp}
+</t>
+  </si>
+  <si>
+    <t>Date and time of the source event that is the catalyst for creation or update of this FHIR resource.</t>
+  </si>
+  <si>
+    <t>Generated by the source system to specify the date and time of the source event that is the catalyst for creation or update of this FHIR resource.</t>
+  </si>
+  <si>
     <t>Meta.versionId</t>
   </si>
   <si>
@@ -327,10 +488,6 @@
     <t>Meta.source</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
@@ -394,13 +551,139 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>SourceClassificationTag</t>
+  </si>
+  <si>
+    <t>Identifies if the origin of the data elements contained in this FHIR Resource are from primary source systems or secondary systems.</t>
+  </si>
+  <si>
+    <t>Meta.tag.id</t>
+  </si>
+  <si>
+    <t>Meta.tag.extension</t>
+  </si>
+  <si>
+    <t>Meta.tag.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://alvearie.io/fhir/CodeSystem/process-meta-primary-or-secondary</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Meta.tag.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Meta.tag.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://alvearie.io/fhir/ValueSet/source-classification-values</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Meta.tag.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Meta.tag.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -549,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -558,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.34375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.7890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -568,7 +851,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -582,13 +865,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.35546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1140,10 +1423,10 @@
         <v>68</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1217,7 +1500,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1239,13 +1522,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1319,7 +1602,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1341,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1421,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1443,13 +1726,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1523,7 +1806,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1545,13 +1828,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1625,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1635,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1647,13 +1930,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1727,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1737,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1749,13 +2032,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1829,7 +2112,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
@@ -1839,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1851,13 +2134,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1931,7 +2214,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1941,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1953,13 +2236,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2030,9 +2313,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
       </c>
@@ -2041,7 +2326,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2050,20 +2335,18 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
@@ -2112,29 +2395,31 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>37</v>
       </c>
@@ -2152,20 +2437,18 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2214,29 +2497,31 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>37</v>
       </c>
@@ -2254,20 +2539,18 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2316,29 +2599,31 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
       </c>
@@ -2347,7 +2632,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2356,20 +2641,18 @@
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2418,7 +2701,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2430,15 +2713,15 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2449,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2458,20 +2741,18 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>37</v>
@@ -2496,13 +2777,13 @@
         <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
@@ -2520,27 +2801,27 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2551,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2560,20 +2841,18 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2598,31 +2877,31 @@
         <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2634,14 +2913,1844 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>37</v>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ20">
+  <autoFilter ref="A1:AJ38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2651,7 +4760,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI19">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/0.1.0/StructureDefinition-process-meta.xlsx
+++ b/docs/0.1.0/StructureDefinition-process-meta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="208">
   <si>
     <t>Path</t>
   </si>
@@ -216,159 +216,150 @@
     <t>ingestionBatchId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/ingestion-batch-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
 </t>
   </si>
   <si>
-    <t>The identifier generated by an ingestion service that represents a collection of messages that the producer submitted together.</t>
-  </si>
-  <si>
-    <t>The identifier generated by an ingestion service, such as the Health Record Ingestion (HRI) management API, that represents a collection or grouping of messages that the producer submitted together. The batch definition needs to be agreed upon by data producers and data consumers.</t>
+    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
   </si>
   <si>
     <t>tenantId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/tenant-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/tenant-id}
 </t>
   </si>
   <si>
-    <t>The id of the client or tenant that holds the contract with the data receiver as recorded by the data receiver.</t>
-  </si>
-  <si>
-    <t>The id of the client or tenant that holds the contract with the data receiver as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver system(s). The receiver system(s) should associate this ID to the messages that originate from this client or tenant for traceability, data protection, and data isolation when appropriate.</t>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
   </si>
   <si>
     <t>processClientId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-client-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
 </t>
   </si>
   <si>
-    <t>The id of the client as recorded by the data producer or data integrator.</t>
-  </si>
-  <si>
-    <t>The id of the client as recorded in the data producer or data integrator source system(s).</t>
+    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
   </si>
   <si>
     <t>processOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-organization}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-organization}
 </t>
   </si>
   <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element.</t>
-  </si>
-  <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. For example if an IBM analytic service has been the producer, the process-organization value would be IBM.</t>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
   </si>
   <si>
     <t>processName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-name}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-name}
 </t>
   </si>
   <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element.</t>
-  </si>
-  <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. For example, if an IBM analytic service has been the producer, the process-name would be the name of that analytic service.</t>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
   </si>
   <si>
     <t>processVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-version}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-version}
 </t>
   </si>
   <si>
-    <t>The version of the process or service that has produced the data held in the FHIR resource or element.</t>
+    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
     <t>processType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-type}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-type}
 </t>
   </si>
   <si>
-    <t>The classification type of the process that has produced the data held in the FHIR resource or element.</t>
-  </si>
-  <si>
-    <t>The classification type of the process that has produced the data held in the FHIR resource or element. For example, if the process is primarily a Natural Language Processing (NLP) service, the type may be specified as NLP. Or if the process is primarily one that aggregates and groups related items, the type may be specified as Grouper.</t>
+    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
   </si>
   <si>
     <t>processRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-record-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-record-id}
 </t>
   </si>
   <si>
-    <t>The record id that the data producer or data integrator uses internally to identify this data.</t>
+    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
   </si>
   <si>
     <t>processTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/process-timestamp}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-timestamp}
 </t>
   </si>
   <si>
-    <t>The timestamp when the data was generated within this FHIR resource or element.</t>
+    <t>The timestamp when the data was generated within the FHIR resource or element</t>
   </si>
   <si>
     <t>sourceRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-record-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
 </t>
   </si>
   <si>
-    <t>The identifier for a record that the data producer or data integrator extracted knowledge from to produce the data within this FHIR resource or element.</t>
+    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
   </si>
   <si>
     <t>sourceFileId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-file-id}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-file-id}
 </t>
   </si>
   <si>
-    <t>The id for a file that the data producer or data integrator extracted knowledge from to produce the data within this FHIR resource or element.</t>
+    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
   </si>
   <si>
     <t>sourceRecordType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-record-type}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
 </t>
   </si>
   <si>
-    <t>The type of the data model or schema used to generate this FHIR resource.</t>
+    <t>Either the data model type or schema type that generates this FHIR resource</t>
   </si>
   <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-data-model-version}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-data-model-version}
 </t>
   </si>
   <si>
-    <t>The version of the data model in the source system used by the data producer or data integrator.</t>
+    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
   </si>
   <si>
     <t>sourceEventTrigger</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-event-trigger}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
 </t>
   </si>
   <si>
-    <t>The event that is the catalyst for creation or update of this FHIR resource.</t>
+    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
   </si>
   <si>
     <t>Meta.extension.id</t>
@@ -399,7 +390,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/StructureDefinition/source-event-trigger</t>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -440,14 +431,11 @@
     <t>sourceEventTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/source-event-timestamp}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
 </t>
   </si>
   <si>
-    <t>Date and time of the source event that is the catalyst for creation or update of this FHIR resource.</t>
-  </si>
-  <si>
-    <t>Generated by the source system to specify the date and time of the source event that is the catalyst for creation or update of this FHIR resource.</t>
+    <t>Date and time of the source event that triggers either the creation or updating of this FHIR resource</t>
   </si>
   <si>
     <t>Meta.versionId</t>
@@ -564,7 +552,7 @@
     <t>SourceClassificationTag</t>
   </si>
   <si>
-    <t>Identifies if the origin of the data elements contained in this FHIR Resource are from primary source systems or secondary systems.</t>
+    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
   </si>
   <si>
     <t>Meta.tag.id</t>
@@ -588,7 +576,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/CodeSystem/process-meta-primary-or-secondary</t>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -634,7 +622,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/ValueSet/source-classification-values</t>
+    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -851,7 +839,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="130.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -865,7 +853,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.35546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.58203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1324,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1398,7 +1386,7 @@
         <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1420,13 +1408,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1500,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1522,13 +1510,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1602,7 +1590,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1624,13 +1612,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1704,7 +1692,7 @@
         <v>52</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1726,13 +1714,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1806,7 +1794,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1828,13 +1816,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1908,7 +1896,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1930,13 +1918,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2010,7 +1998,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -2032,13 +2020,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2112,7 +2100,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
@@ -2134,13 +2122,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2214,7 +2202,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -2236,13 +2224,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2316,7 +2304,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
@@ -2338,13 +2326,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2418,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>37</v>
@@ -2440,13 +2428,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2520,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>37</v>
@@ -2542,13 +2530,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2622,7 +2610,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
@@ -2644,13 +2632,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2721,7 +2709,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2821,7 +2809,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2847,10 +2835,10 @@
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2921,7 +2909,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2944,16 +2932,16 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2961,7 +2949,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>37</v>
@@ -3003,7 +2991,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>46</v>
@@ -3023,7 +3011,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3046,13 +3034,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3091,17 +3079,17 @@
         <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -3121,10 +3109,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>37</v>
@@ -3146,13 +3134,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3179,11 +3167,11 @@
         <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>37</v>
@@ -3201,7 +3189,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3224,7 +3212,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>37</v>
@@ -3246,13 +3234,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3323,7 +3311,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3343,19 +3331,19 @@
         <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3405,7 +3393,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3425,7 +3413,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3445,19 +3433,19 @@
         <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3507,7 +3495,7 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3547,19 +3535,19 @@
         <v>37</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3609,7 +3597,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3629,7 +3617,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3649,19 +3637,19 @@
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3711,7 +3699,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3731,7 +3719,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3751,19 +3739,19 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -3789,13 +3777,13 @@
         <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>37</v>
@@ -3813,7 +3801,7 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
@@ -3833,7 +3821,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3853,19 +3841,19 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -3891,19 +3879,19 @@
         <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
@@ -3913,7 +3901,7 @@
         <v>60</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3933,10 +3921,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>37</v>
@@ -3955,19 +3943,19 @@
         <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -3993,13 +3981,13 @@
         <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>37</v>
@@ -4017,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -4037,7 +4025,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4137,7 +4125,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4239,7 +4227,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4259,22 +4247,22 @@
         <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>37</v>
@@ -4284,7 +4272,7 @@
         <v>37</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>37</v>
@@ -4323,7 +4311,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4338,12 +4326,12 @@
         <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4363,19 +4351,19 @@
         <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4425,7 +4413,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4440,12 +4428,12 @@
         <v>43</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4465,20 +4453,20 @@
         <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>37</v>
@@ -4503,11 +4491,11 @@
         <v>37</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>37</v>
@@ -4525,7 +4513,7 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
@@ -4540,12 +4528,12 @@
         <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4565,20 +4553,20 @@
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>37</v>
@@ -4627,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4642,12 +4630,12 @@
         <v>43</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4667,22 +4655,22 @@
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>37</v>
@@ -4731,7 +4719,7 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
@@ -4746,7 +4734,7 @@
         <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/0.1.0/StructureDefinition-process-meta.xlsx
+++ b/docs/0.1.0/StructureDefinition-process-meta.xlsx
@@ -829,42 +829,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.7890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.58203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/0.1.0/StructureDefinition-process-meta.xlsx
+++ b/docs/0.1.0/StructureDefinition-process-meta.xlsx
@@ -829,42 +829,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.4296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
